--- a/data_out/bes_2003_2023/bes_reddito.xlsx
+++ b/data_out/bes_2003_2023/bes_reddito.xlsx
@@ -395,20 +395,14 @@
           <t>Emilia-Romagna</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>23431,6</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>24897,8</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>26072,7</t>
-        </is>
+      <c r="C2">
+        <v>23431.6</v>
+      </c>
+      <c r="D2">
+        <v>24897.8</v>
+      </c>
+      <c r="E2">
+        <v>26072.7</v>
       </c>
     </row>
     <row r="3">
@@ -422,20 +416,14 @@
           <t>Parma</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>24380,5</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25751,4</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>27083,2</t>
-        </is>
+      <c r="C3">
+        <v>24380.5</v>
+      </c>
+      <c r="D3">
+        <v>25751.4</v>
+      </c>
+      <c r="E3">
+        <v>27083.2</v>
       </c>
     </row>
     <row r="4">
@@ -449,20 +437,14 @@
           <t>Italia</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20032,2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>21297,3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>22358,6</t>
-        </is>
+      <c r="C4">
+        <v>20032.2</v>
+      </c>
+      <c r="D4">
+        <v>21297.3</v>
+      </c>
+      <c r="E4">
+        <v>22358.6</v>
       </c>
     </row>
     <row r="5">
@@ -476,20 +458,14 @@
           <t>Emilia-Romagna</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>23834,7</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>24603,6</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>25486,3</t>
-        </is>
+      <c r="C5">
+        <v>23834.7</v>
+      </c>
+      <c r="D5">
+        <v>24603.6</v>
+      </c>
+      <c r="E5">
+        <v>25486.3</v>
       </c>
     </row>
     <row r="6">
@@ -503,20 +479,14 @@
           <t>Parma</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>25939,0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>26883,6</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>27869,1</t>
-        </is>
+      <c r="C6">
+        <v>25939</v>
+      </c>
+      <c r="D6">
+        <v>26883.6</v>
+      </c>
+      <c r="E6">
+        <v>27869.1</v>
       </c>
     </row>
     <row r="7">
@@ -530,20 +500,14 @@
           <t>Italia</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>21896,6</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>22826,7</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>23630,3</t>
-        </is>
+      <c r="C7">
+        <v>21896.6</v>
+      </c>
+      <c r="D7">
+        <v>22826.7</v>
+      </c>
+      <c r="E7">
+        <v>23630.3</v>
       </c>
     </row>
     <row r="8">
@@ -557,20 +521,14 @@
           <t>Emilia-Romagna</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>21054,3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>21692,3</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>23305,9</t>
-        </is>
+      <c r="C8">
+        <v>21054.3</v>
+      </c>
+      <c r="D8">
+        <v>21692.3</v>
+      </c>
+      <c r="E8">
+        <v>23305.9</v>
       </c>
     </row>
     <row r="9">
@@ -584,20 +542,14 @@
           <t>Parma</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>21807,3</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>22473,5</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>24165,3</t>
-        </is>
+      <c r="C9">
+        <v>21807.3</v>
+      </c>
+      <c r="D9">
+        <v>22473.5</v>
+      </c>
+      <c r="E9">
+        <v>24165.3</v>
       </c>
     </row>
     <row r="10">
@@ -611,20 +563,14 @@
           <t>Italia</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>19782,3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>20312,4</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>21736,8</t>
-        </is>
+      <c r="C10">
+        <v>19782.3</v>
+      </c>
+      <c r="D10">
+        <v>20312.4</v>
+      </c>
+      <c r="E10">
+        <v>21736.8</v>
       </c>
     </row>
   </sheetData>
